--- a/LArIAT_Pin_Mapping_06262018.xlsx
+++ b/LArIAT_Pin_Mapping_06262018.xlsx
@@ -138,19 +138,26 @@
     <t>Induction</t>
   </si>
   <si>
-    <t>Original Wire #</t>
+    <t>Jonathan</t>
   </si>
   <si>
-    <t>Jen's PDF</t>
+    <t>New Wire #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -301,101 +308,104 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K499"/>
+  <dimension ref="A1:K482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <pane ySplit="2" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A483" sqref="A483:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -719,8 +729,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
-        <v>39</v>
+      <c r="A1" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24" t="s">
@@ -741,7 +751,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -811,7 +821,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>36</v>
@@ -846,7 +856,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="16">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>36</v>
@@ -881,7 +891,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="16">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>36</v>
@@ -916,7 +926,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="16">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>36</v>
@@ -951,7 +961,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>36</v>
@@ -986,7 +996,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="16">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>36</v>
@@ -1021,7 +1031,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="16">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>36</v>
@@ -1056,7 +1066,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>36</v>
@@ -1091,7 +1101,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="16">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>36</v>
@@ -1126,7 +1136,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="16">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>36</v>
@@ -1161,7 +1171,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>36</v>
@@ -1196,7 +1206,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="17">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>36</v>
@@ -1231,7 +1241,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="17">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>36</v>
@@ -1266,7 +1276,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="17">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>36</v>
@@ -1301,7 +1311,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="17">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>36</v>
@@ -1336,7 +1346,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>36</v>
@@ -1371,7 +1381,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="4">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -1406,7 +1416,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -1441,7 +1451,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>36</v>
@@ -1476,7 +1486,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>36</v>
@@ -1511,7 +1521,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -1546,7 +1556,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>36</v>
@@ -1581,7 +1591,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
@@ -1616,7 +1626,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>36</v>
@@ -1651,7 +1661,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>36</v>
@@ -1686,7 +1696,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>36</v>
@@ -1721,7 +1731,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
@@ -1756,7 +1766,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="4">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>36</v>
@@ -1791,7 +1801,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
@@ -1826,7 +1836,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>36</v>
@@ -1861,7 +1871,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>36</v>
@@ -1896,7 +1906,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>36</v>
@@ -1931,7 +1941,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="20">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>36</v>
@@ -1966,7 +1976,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="20">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>36</v>
@@ -2001,7 +2011,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="20">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>36</v>
@@ -2036,7 +2046,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="20">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>36</v>
@@ -2071,7 +2081,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="20">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>36</v>
@@ -2106,7 +2116,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="20">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>36</v>
@@ -2141,7 +2151,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="20">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>36</v>
@@ -2176,7 +2186,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="20">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>36</v>
@@ -2211,7 +2221,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="20">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>36</v>
@@ -2246,7 +2256,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="20">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>36</v>
@@ -2281,7 +2291,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="20">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>36</v>
@@ -2316,7 +2326,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="20">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>36</v>
@@ -2351,7 +2361,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="20">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>36</v>
@@ -2386,7 +2396,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="20">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>36</v>
@@ -2421,7 +2431,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="20">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>36</v>
@@ -2456,7 +2466,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>36</v>
@@ -2491,7 +2501,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>36</v>
@@ -2526,7 +2536,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>36</v>
@@ -2561,7 +2571,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>36</v>
@@ -2596,7 +2606,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>36</v>
@@ -2631,7 +2641,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>36</v>
@@ -2666,7 +2676,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="9">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>36</v>
@@ -2701,7 +2711,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="9">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>36</v>
@@ -2736,7 +2746,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="9">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>36</v>
@@ -2771,7 +2781,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="9">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>36</v>
@@ -2806,7 +2816,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="9">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>36</v>
@@ -2841,7 +2851,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>36</v>
@@ -2876,7 +2886,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>36</v>
@@ -2911,7 +2921,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="10">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>36</v>
@@ -2946,7 +2956,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -2981,7 +2991,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="10">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>36</v>
@@ -3016,7 +3026,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="16">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>36</v>
@@ -3051,7 +3061,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="16">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>36</v>
@@ -3086,7 +3096,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="16">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>36</v>
@@ -3121,7 +3131,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="16">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>36</v>
@@ -3156,7 +3166,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="16">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>36</v>
@@ -3191,7 +3201,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="16">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>36</v>
@@ -3226,7 +3236,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="16">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>36</v>
@@ -3261,7 +3271,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="16">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>36</v>
@@ -3296,7 +3306,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="16">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>36</v>
@@ -3331,7 +3341,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="16">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>36</v>
@@ -3366,7 +3376,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="16">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>36</v>
@@ -3401,7 +3411,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="17">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>36</v>
@@ -3436,7 +3446,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="17">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>36</v>
@@ -3471,7 +3481,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="17">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>36</v>
@@ -3506,7 +3516,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="17">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>36</v>
@@ -3541,7 +3551,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="17">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>36</v>
@@ -3576,7 +3586,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="21">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>37</v>
@@ -3611,7 +3621,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="21">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>37</v>
@@ -3646,7 +3656,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="21">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>37</v>
@@ -3681,7 +3691,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="21">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>37</v>
@@ -3716,7 +3726,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="21">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>37</v>
@@ -3751,7 +3761,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="21">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>37</v>
@@ -3786,7 +3796,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="12">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>37</v>
@@ -3821,7 +3831,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="12">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>37</v>
@@ -3856,7 +3866,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="12">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>37</v>
@@ -3891,7 +3901,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="12">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>37</v>
@@ -3926,7 +3936,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="12">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>37</v>
@@ -3961,7 +3971,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="12">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>37</v>
@@ -3996,7 +4006,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>37</v>
@@ -4031,7 +4041,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="12">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>37</v>
@@ -4066,7 +4076,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="12">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>37</v>
@@ -4101,7 +4111,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="12">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>37</v>
@@ -4136,7 +4146,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="19">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>37</v>
@@ -4171,7 +4181,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="19">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>37</v>
@@ -4206,7 +4216,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="19">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>37</v>
@@ -4241,7 +4251,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="19">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B102" s="19" t="s">
         <v>37</v>
@@ -4276,7 +4286,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="19">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>37</v>
@@ -4311,7 +4321,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="19">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>37</v>
@@ -4346,7 +4356,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="20">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>37</v>
@@ -4381,7 +4391,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="20">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>37</v>
@@ -4416,7 +4426,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="20">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>37</v>
@@ -4451,7 +4461,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="20">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>37</v>
@@ -4486,7 +4496,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="20">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>37</v>
@@ -4521,7 +4531,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="20">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>37</v>
@@ -4556,7 +4566,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="20">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>37</v>
@@ -4591,7 +4601,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="20">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>37</v>
@@ -4626,7 +4636,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="20">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>37</v>
@@ -4661,7 +4671,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="20">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>37</v>
@@ -4696,7 +4706,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="4">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>36</v>
@@ -4731,7 +4741,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="4">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>36</v>
@@ -4766,7 +4776,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="4">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>36</v>
@@ -4801,7 +4811,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="4">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>36</v>
@@ -4836,7 +4846,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="4">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>36</v>
@@ -4871,7 +4881,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="4">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>36</v>
@@ -4906,7 +4916,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="4">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>36</v>
@@ -4941,7 +4951,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="4">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>36</v>
@@ -4976,7 +4986,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="4">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -5011,7 +5021,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="4">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>36</v>
@@ -5046,7 +5056,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="4">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>36</v>
@@ -5081,7 +5091,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="4">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>36</v>
@@ -5116,7 +5126,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="4">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>36</v>
@@ -5151,7 +5161,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="4">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>36</v>
@@ -5186,7 +5196,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="4">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>36</v>
@@ -5221,7 +5231,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="4">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -5256,7 +5266,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="10">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>36</v>
@@ -5291,7 +5301,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="10">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>36</v>
@@ -5326,7 +5336,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="10">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>36</v>
@@ -5361,7 +5371,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="10">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>36</v>
@@ -5396,7 +5406,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="10">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>36</v>
@@ -5431,7 +5441,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="10">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>36</v>
@@ -5466,7 +5476,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="10">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>36</v>
@@ -5501,7 +5511,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="10">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>36</v>
@@ -5536,7 +5546,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="10">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>36</v>
@@ -5571,7 +5581,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="10">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>36</v>
@@ -5606,7 +5616,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="10">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>36</v>
@@ -5641,7 +5651,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="10">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>36</v>
@@ -5676,7 +5686,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="10">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>36</v>
@@ -5711,7 +5721,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="10">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>36</v>
@@ -5746,7 +5756,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="10">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>36</v>
@@ -5781,7 +5791,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="10">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>36</v>
@@ -5816,7 +5826,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="12">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>37</v>
@@ -5851,7 +5861,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="12">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>37</v>
@@ -5886,7 +5896,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="12">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>37</v>
@@ -5921,7 +5931,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="12">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>37</v>
@@ -5956,7 +5966,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="12">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>37</v>
@@ -5991,7 +6001,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="12">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>37</v>
@@ -6026,7 +6036,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="12">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>37</v>
@@ -6061,7 +6071,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="12">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>37</v>
@@ -6096,7 +6106,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="12">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>37</v>
@@ -6131,7 +6141,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="12">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>37</v>
@@ -6166,7 +6176,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="12">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>37</v>
@@ -6201,7 +6211,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="12">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>37</v>
@@ -6236,7 +6246,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="12">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>37</v>
@@ -6271,7 +6281,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="12">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>37</v>
@@ -6306,7 +6316,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="12">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>37</v>
@@ -6341,7 +6351,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="12">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>37</v>
@@ -6376,7 +6386,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="17">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>37</v>
@@ -6411,7 +6421,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="17">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>37</v>
@@ -6446,7 +6456,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="17">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>37</v>
@@ -6481,7 +6491,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="17">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>37</v>
@@ -6516,7 +6526,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="17">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>37</v>
@@ -6551,7 +6561,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="17">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>37</v>
@@ -6586,7 +6596,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="17">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>37</v>
@@ -6621,7 +6631,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="17">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>37</v>
@@ -6656,7 +6666,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="17">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>37</v>
@@ -6691,7 +6701,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="17">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B172" s="17" t="s">
         <v>37</v>
@@ -6726,7 +6736,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="17">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B173" s="17" t="s">
         <v>37</v>
@@ -6761,7 +6771,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="17">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B174" s="17" t="s">
         <v>37</v>
@@ -6796,7 +6806,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="17">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B175" s="17" t="s">
         <v>37</v>
@@ -6831,7 +6841,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="17">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B176" s="17" t="s">
         <v>37</v>
@@ -6866,7 +6876,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="17">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B177" s="17" t="s">
         <v>37</v>
@@ -6901,7 +6911,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="17">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B178" s="17" t="s">
         <v>37</v>
@@ -6936,7 +6946,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="10">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>36</v>
@@ -6971,7 +6981,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="10">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>36</v>
@@ -7006,7 +7016,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="10">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>36</v>
@@ -7041,7 +7051,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="10">
-        <v>125</v>
+        <v>355</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>36</v>
@@ -7076,7 +7086,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="10">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>36</v>
@@ -7111,7 +7121,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="10">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>36</v>
@@ -7146,7 +7156,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="10">
-        <v>122</v>
+        <v>358</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>36</v>
@@ -7181,7 +7191,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="10">
-        <v>121</v>
+        <v>359</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>36</v>
@@ -7216,7 +7226,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="10">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>36</v>
@@ -7251,7 +7261,7 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="10">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>36</v>
@@ -7286,7 +7296,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="10">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>36</v>
@@ -7321,7 +7331,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="10">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>36</v>
@@ -7356,7 +7366,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="10">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>36</v>
@@ -7391,7 +7401,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="10">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>36</v>
@@ -7426,7 +7436,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="10">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>36</v>
@@ -7461,7 +7471,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="10">
-        <v>113</v>
+        <v>367</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>36</v>
@@ -7496,7 +7506,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="17">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>36</v>
@@ -7531,7 +7541,7 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="17">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="B196" s="16" t="s">
         <v>36</v>
@@ -7566,7 +7576,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="17">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="B197" s="16" t="s">
         <v>36</v>
@@ -7601,7 +7611,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="17">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>36</v>
@@ -7636,7 +7646,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="17">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>36</v>
@@ -7671,7 +7681,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="17">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>36</v>
@@ -7706,7 +7716,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="17">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>36</v>
@@ -7741,7 +7751,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="17">
-        <v>105</v>
+        <v>375</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>36</v>
@@ -7776,7 +7786,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="17">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>36</v>
@@ -7811,7 +7821,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="17">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>36</v>
@@ -7846,7 +7856,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="17">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="B205" s="16" t="s">
         <v>36</v>
@@ -7881,7 +7891,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="17">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="B206" s="17" t="s">
         <v>36</v>
@@ -7916,7 +7926,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="17">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="B207" s="17" t="s">
         <v>36</v>
@@ -7951,7 +7961,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="17">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>36</v>
@@ -7986,7 +7996,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="17">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="B209" s="17" t="s">
         <v>36</v>
@@ -8021,7 +8031,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="17">
-        <v>97</v>
+        <v>383</v>
       </c>
       <c r="B210" s="17" t="s">
         <v>36</v>
@@ -8056,7 +8066,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="21">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>37</v>
@@ -8091,7 +8101,7 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="21">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>37</v>
@@ -8126,7 +8136,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="21">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B213" s="21" t="s">
         <v>37</v>
@@ -8161,7 +8171,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="21">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B214" s="21" t="s">
         <v>37</v>
@@ -8196,7 +8206,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="21">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B215" s="21" t="s">
         <v>37</v>
@@ -8231,7 +8241,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="21">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B216" s="21" t="s">
         <v>37</v>
@@ -8266,7 +8276,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="12">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>37</v>
@@ -8301,7 +8311,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="12">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>37</v>
@@ -8336,7 +8346,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="12">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>37</v>
@@ -8371,7 +8381,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="12">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>37</v>
@@ -8406,7 +8416,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="12">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>37</v>
@@ -8441,7 +8451,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="12">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>37</v>
@@ -8476,7 +8486,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="12">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>37</v>
@@ -8511,7 +8521,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="12">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>37</v>
@@ -8546,7 +8556,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="12">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>37</v>
@@ -8581,7 +8591,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="12">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>37</v>
@@ -8616,7 +8626,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="19">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>37</v>
@@ -8651,7 +8661,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="19">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>37</v>
@@ -8686,7 +8696,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="19">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>37</v>
@@ -8721,7 +8731,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="19">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>37</v>
@@ -8756,7 +8766,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="19">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B231" s="19" t="s">
         <v>37</v>
@@ -8791,7 +8801,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="19">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B232" s="19" t="s">
         <v>37</v>
@@ -8826,7 +8836,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="20">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B233" s="20" t="s">
         <v>37</v>
@@ -8861,7 +8871,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="20">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B234" s="20" t="s">
         <v>37</v>
@@ -8896,7 +8906,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="20">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B235" s="20" t="s">
         <v>37</v>
@@ -8931,7 +8941,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="20">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B236" s="20" t="s">
         <v>37</v>
@@ -8966,7 +8976,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="20">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>37</v>
@@ -9001,7 +9011,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="20">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B238" s="20" t="s">
         <v>37</v>
@@ -9036,7 +9046,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="20">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B239" s="20" t="s">
         <v>37</v>
@@ -9071,7 +9081,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="20">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B240" s="20" t="s">
         <v>37</v>
@@ -9106,7 +9116,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="20">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>37</v>
@@ -9141,7 +9151,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="20">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B242" s="20" t="s">
         <v>37</v>
@@ -9176,7 +9186,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="4">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>36</v>
@@ -9211,7 +9221,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="4">
-        <v>95</v>
+        <v>385</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>36</v>
@@ -9246,7 +9256,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="4">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>36</v>
@@ -9281,7 +9291,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="4">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>36</v>
@@ -9316,7 +9326,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="4">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>36</v>
@@ -9351,7 +9361,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="4">
-        <v>91</v>
+        <v>389</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>36</v>
@@ -9386,7 +9396,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="4">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>36</v>
@@ -9421,7 +9431,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="4">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>36</v>
@@ -9456,7 +9466,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="4">
-        <v>88</v>
+        <v>392</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>36</v>
@@ -9491,7 +9501,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="4">
-        <v>87</v>
+        <v>393</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>36</v>
@@ -9526,7 +9536,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="4">
-        <v>86</v>
+        <v>394</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>36</v>
@@ -9561,7 +9571,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="4">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>36</v>
@@ -9596,7 +9606,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="4">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>36</v>
@@ -9631,7 +9641,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="4">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>36</v>
@@ -9666,7 +9676,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="4">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>36</v>
@@ -9701,7 +9711,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="4">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>36</v>
@@ -9736,7 +9746,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="10">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>36</v>
@@ -9771,7 +9781,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="10">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="B260" s="10" t="s">
         <v>36</v>
@@ -9806,7 +9816,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="10">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="B261" s="10" t="s">
         <v>36</v>
@@ -9841,7 +9851,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="10">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="B262" s="10" t="s">
         <v>36</v>
@@ -9876,7 +9886,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="10">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="B263" s="10" t="s">
         <v>36</v>
@@ -9911,7 +9921,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="10">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="B264" s="10" t="s">
         <v>36</v>
@@ -9946,7 +9956,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="10">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>36</v>
@@ -9981,7 +9991,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="10">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>36</v>
@@ -10016,7 +10026,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="10">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>36</v>
@@ -10051,7 +10061,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="10">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>36</v>
@@ -10086,7 +10096,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="10">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>36</v>
@@ -10121,7 +10131,7 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="10">
-        <v>69</v>
+        <v>411</v>
       </c>
       <c r="B270" s="10" t="s">
         <v>36</v>
@@ -10156,7 +10166,7 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="10">
-        <v>68</v>
+        <v>412</v>
       </c>
       <c r="B271" s="10" t="s">
         <v>36</v>
@@ -10191,7 +10201,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="10">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="B272" s="10" t="s">
         <v>36</v>
@@ -10226,7 +10236,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="10">
-        <v>66</v>
+        <v>414</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>36</v>
@@ -10261,7 +10271,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="10">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>36</v>
@@ -10331,7 +10341,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B276" s="12" t="s">
         <v>37</v>
@@ -10366,7 +10376,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="12">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>37</v>
@@ -10401,7 +10411,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="12">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B278" s="12" t="s">
         <v>37</v>
@@ -10436,7 +10446,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="12">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B279" s="12" t="s">
         <v>37</v>
@@ -10471,7 +10481,7 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="12">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B280" s="12" t="s">
         <v>37</v>
@@ -10506,7 +10516,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="12">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>37</v>
@@ -10541,7 +10551,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="12">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>37</v>
@@ -10576,7 +10586,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="12">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B283" s="12" t="s">
         <v>37</v>
@@ -10611,7 +10621,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="12">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B284" s="12" t="s">
         <v>37</v>
@@ -10646,7 +10656,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="12">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B285" s="12" t="s">
         <v>37</v>
@@ -10681,7 +10691,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="12">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B286" s="12" t="s">
         <v>37</v>
@@ -10716,7 +10726,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="12">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>37</v>
@@ -10751,7 +10761,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="12">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B288" s="12" t="s">
         <v>37</v>
@@ -10786,7 +10796,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="12">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B289" s="12" t="s">
         <v>37</v>
@@ -10821,7 +10831,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="12">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B290" s="12" t="s">
         <v>37</v>
@@ -10856,7 +10866,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="17">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B291" s="17" t="s">
         <v>37</v>
@@ -10891,7 +10901,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="17">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B292" s="17" t="s">
         <v>37</v>
@@ -10926,7 +10936,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="17">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B293" s="17" t="s">
         <v>37</v>
@@ -10961,7 +10971,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="17">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B294" s="17" t="s">
         <v>37</v>
@@ -10996,7 +11006,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="17">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B295" s="17" t="s">
         <v>37</v>
@@ -11031,7 +11041,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="17">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B296" s="17" t="s">
         <v>37</v>
@@ -11066,7 +11076,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="17">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B297" s="17" t="s">
         <v>37</v>
@@ -11101,7 +11111,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="17">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B298" s="17" t="s">
         <v>37</v>
@@ -11136,7 +11146,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="17">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B299" s="17" t="s">
         <v>37</v>
@@ -11171,7 +11181,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="17">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B300" s="17" t="s">
         <v>37</v>
@@ -11206,7 +11216,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="17">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B301" s="17" t="s">
         <v>37</v>
@@ -11241,7 +11251,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="17">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B302" s="17" t="s">
         <v>37</v>
@@ -11276,7 +11286,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="17">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B303" s="17" t="s">
         <v>37</v>
@@ -11311,7 +11321,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="17">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B304" s="17" t="s">
         <v>37</v>
@@ -11346,7 +11356,7 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="17">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="B305" s="17" t="s">
         <v>37</v>
@@ -11381,7 +11391,7 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="17">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B306" s="17" t="s">
         <v>37</v>
@@ -11416,7 +11426,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="10">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>36</v>
@@ -11451,7 +11461,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="10">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>36</v>
@@ -11486,7 +11496,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="10">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>36</v>
@@ -11521,7 +11531,7 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="10">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>36</v>
@@ -11556,7 +11566,7 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="10">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>36</v>
@@ -11591,7 +11601,7 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="10">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>36</v>
@@ -11626,7 +11636,7 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="9">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>36</v>
@@ -11661,7 +11671,7 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="9">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>36</v>
@@ -11696,7 +11706,7 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="9">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>36</v>
@@ -11731,7 +11741,7 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="9">
-        <v>55</v>
+        <v>425</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>36</v>
@@ -11766,7 +11776,7 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="9">
-        <v>54</v>
+        <v>426</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>36</v>
@@ -11801,7 +11811,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="10">
-        <v>53</v>
+        <v>427</v>
       </c>
       <c r="B318" s="10" t="s">
         <v>36</v>
@@ -11836,7 +11846,7 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="10">
-        <v>52</v>
+        <v>428</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>36</v>
@@ -11871,7 +11881,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="10">
-        <v>51</v>
+        <v>429</v>
       </c>
       <c r="B320" s="10" t="s">
         <v>36</v>
@@ -11906,7 +11916,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="10">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="B321" s="10" t="s">
         <v>36</v>
@@ -11941,7 +11951,7 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="10">
-        <v>49</v>
+        <v>431</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>36</v>
@@ -11976,7 +11986,7 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="16">
-        <v>48</v>
+        <v>432</v>
       </c>
       <c r="B323" s="16" t="s">
         <v>36</v>
@@ -12011,7 +12021,7 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="16">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="B324" s="16" t="s">
         <v>36</v>
@@ -12046,7 +12056,7 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="16">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="B325" s="16" t="s">
         <v>36</v>
@@ -12081,7 +12091,7 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="16">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="B326" s="16" t="s">
         <v>36</v>
@@ -12116,7 +12126,7 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="16">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="B327" s="16" t="s">
         <v>36</v>
@@ -12151,7 +12161,7 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="16">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="B328" s="16" t="s">
         <v>36</v>
@@ -12186,7 +12196,7 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="16">
-        <v>42</v>
+        <v>438</v>
       </c>
       <c r="B329" s="16" t="s">
         <v>36</v>
@@ -12221,7 +12231,7 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="16">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="B330" s="16" t="s">
         <v>36</v>
@@ -12256,7 +12266,7 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="16">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="B331" s="16" t="s">
         <v>36</v>
@@ -12291,7 +12301,7 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="16">
-        <v>39</v>
+        <v>441</v>
       </c>
       <c r="B332" s="16" t="s">
         <v>36</v>
@@ -12326,7 +12336,7 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="16">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="B333" s="16" t="s">
         <v>36</v>
@@ -12361,7 +12371,7 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="17">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="B334" s="17" t="s">
         <v>36</v>
@@ -12396,7 +12406,7 @@
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="17">
-        <v>36</v>
+        <v>444</v>
       </c>
       <c r="B335" s="17" t="s">
         <v>36</v>
@@ -12431,7 +12441,7 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="17">
-        <v>35</v>
+        <v>445</v>
       </c>
       <c r="B336" s="17" t="s">
         <v>36</v>
@@ -12466,7 +12476,7 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="17">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="B337" s="17" t="s">
         <v>36</v>
@@ -12501,7 +12511,7 @@
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="17">
-        <v>33</v>
+        <v>447</v>
       </c>
       <c r="B338" s="17" t="s">
         <v>36</v>
@@ -12536,7 +12546,7 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="21">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B339" s="21" t="s">
         <v>37</v>
@@ -12571,7 +12581,7 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="21">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B340" s="21" t="s">
         <v>37</v>
@@ -12606,7 +12616,7 @@
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="21">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="B341" s="21" t="s">
         <v>37</v>
@@ -12641,7 +12651,7 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="21">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B342" s="21" t="s">
         <v>37</v>
@@ -12676,7 +12686,7 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="21">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B343" s="21" t="s">
         <v>37</v>
@@ -12711,7 +12721,7 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="21">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B344" s="21" t="s">
         <v>37</v>
@@ -12746,7 +12756,7 @@
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="12">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="B345" s="12" t="s">
         <v>37</v>
@@ -12781,7 +12791,7 @@
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="12">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B346" s="12" t="s">
         <v>37</v>
@@ -12816,7 +12826,7 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="12">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B347" s="12" t="s">
         <v>37</v>
@@ -12851,7 +12861,7 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="12">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>37</v>
@@ -12886,7 +12896,7 @@
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="12">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B349" s="12" t="s">
         <v>37</v>
@@ -12921,7 +12931,7 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="12">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>37</v>
@@ -12956,7 +12966,7 @@
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="12">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>37</v>
@@ -12991,7 +13001,7 @@
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="12">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>37</v>
@@ -13026,7 +13036,7 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="12">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="B353" s="12" t="s">
         <v>37</v>
@@ -13061,7 +13071,7 @@
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="12">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B354" s="12" t="s">
         <v>37</v>
@@ -13096,7 +13106,7 @@
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="19">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>37</v>
@@ -13131,7 +13141,7 @@
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="19">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>37</v>
@@ -13166,7 +13176,7 @@
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="19">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>37</v>
@@ -13201,7 +13211,7 @@
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="19">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>37</v>
@@ -13236,7 +13246,7 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="19">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>37</v>
@@ -13271,7 +13281,7 @@
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="19">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>37</v>
@@ -13306,7 +13316,7 @@
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="20">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B361" s="20" t="s">
         <v>37</v>
@@ -13341,7 +13351,7 @@
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="20">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B362" s="20" t="s">
         <v>37</v>
@@ -13376,7 +13386,7 @@
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="20">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>37</v>
@@ -13411,7 +13421,7 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="20">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B364" s="20" t="s">
         <v>37</v>
@@ -13446,7 +13456,7 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="20">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B365" s="20" t="s">
         <v>37</v>
@@ -13481,7 +13491,7 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="20">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B366" s="20" t="s">
         <v>37</v>
@@ -13516,7 +13526,7 @@
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="20">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="B367" s="20" t="s">
         <v>37</v>
@@ -13551,7 +13561,7 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="20">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="B368" s="20" t="s">
         <v>37</v>
@@ -13586,7 +13596,7 @@
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="20">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B369" s="20" t="s">
         <v>37</v>
@@ -13621,7 +13631,7 @@
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="20">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="B370" s="20" t="s">
         <v>37</v>
@@ -13656,7 +13666,7 @@
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="4">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>36</v>
@@ -13691,7 +13701,7 @@
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="4">
-        <v>31</v>
+        <v>449</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>36</v>
@@ -13726,7 +13736,7 @@
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="4">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>36</v>
@@ -13761,7 +13771,7 @@
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="4">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>36</v>
@@ -13796,7 +13806,7 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="4">
-        <v>28</v>
+        <v>452</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>36</v>
@@ -13831,7 +13841,7 @@
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="4">
-        <v>27</v>
+        <v>453</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>36</v>
@@ -13866,7 +13876,7 @@
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="4">
-        <v>26</v>
+        <v>454</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>36</v>
@@ -13901,7 +13911,7 @@
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="4">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>36</v>
@@ -13936,7 +13946,7 @@
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="4">
-        <v>24</v>
+        <v>456</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>36</v>
@@ -13971,7 +13981,7 @@
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="4">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>36</v>
@@ -14006,7 +14016,7 @@
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="4">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>36</v>
@@ -14041,7 +14051,7 @@
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="4">
-        <v>21</v>
+        <v>459</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>36</v>
@@ -14076,7 +14086,7 @@
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="4">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>36</v>
@@ -14111,7 +14121,7 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="4">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>36</v>
@@ -14146,7 +14156,7 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="4">
-        <v>18</v>
+        <v>462</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>36</v>
@@ -14181,7 +14191,7 @@
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="4">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>36</v>
@@ -14216,7 +14226,7 @@
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="10">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>36</v>
@@ -14251,7 +14261,7 @@
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="10">
-        <v>15</v>
+        <v>465</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>36</v>
@@ -14286,7 +14296,7 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="10">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>36</v>
@@ -14321,7 +14331,7 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="10">
-        <v>13</v>
+        <v>467</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>36</v>
@@ -14356,7 +14366,7 @@
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="10">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="B391" s="10" t="s">
         <v>36</v>
@@ -14391,7 +14401,7 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="10">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>36</v>
@@ -14426,7 +14436,7 @@
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="10">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="B393" s="10" t="s">
         <v>36</v>
@@ -14461,7 +14471,7 @@
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="10">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>36</v>
@@ -14496,7 +14506,7 @@
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="10">
-        <v>8</v>
+        <v>472</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>36</v>
@@ -14531,7 +14541,7 @@
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="10">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>36</v>
@@ -14566,7 +14576,7 @@
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="10">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="B397" s="10" t="s">
         <v>36</v>
@@ -14601,7 +14611,7 @@
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="10">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>36</v>
@@ -14636,7 +14646,7 @@
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="10">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>36</v>
@@ -14671,7 +14681,7 @@
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="10">
-        <v>3</v>
+        <v>477</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>36</v>
@@ -14706,7 +14716,7 @@
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="10">
-        <v>2</v>
+        <v>478</v>
       </c>
       <c r="B401" s="10" t="s">
         <v>36</v>
@@ -14741,7 +14751,7 @@
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="10">
-        <v>1</v>
+        <v>479</v>
       </c>
       <c r="B402" s="10" t="s">
         <v>36</v>
@@ -14776,7 +14786,7 @@
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="12">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>37</v>
@@ -14811,7 +14821,7 @@
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="12">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>37</v>
@@ -14846,7 +14856,7 @@
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="12">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="B405" s="12" t="s">
         <v>37</v>
@@ -14881,7 +14891,7 @@
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="12">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B406" s="12" t="s">
         <v>37</v>
@@ -14916,7 +14926,7 @@
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="12">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="B407" s="12" t="s">
         <v>37</v>
@@ -14951,7 +14961,7 @@
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="12">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B408" s="12" t="s">
         <v>37</v>
@@ -14986,7 +14996,7 @@
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="12">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="B409" s="12" t="s">
         <v>37</v>
@@ -15021,7 +15031,7 @@
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="12">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="B410" s="12" t="s">
         <v>37</v>
@@ -15056,7 +15066,7 @@
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="12">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="B411" s="12" t="s">
         <v>37</v>
@@ -15091,7 +15101,7 @@
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="12">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B412" s="12" t="s">
         <v>37</v>
@@ -15126,7 +15136,7 @@
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="12">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="B413" s="12" t="s">
         <v>37</v>
@@ -15161,7 +15171,7 @@
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B414" s="12" t="s">
         <v>37</v>
@@ -15196,7 +15206,7 @@
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="12">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B415" s="12" t="s">
         <v>37</v>
@@ -15231,7 +15241,7 @@
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="12">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B416" s="12" t="s">
         <v>37</v>
@@ -15266,7 +15276,7 @@
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="12">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B417" s="12" t="s">
         <v>37</v>
@@ -15301,7 +15311,7 @@
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="12">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="B418" s="12" t="s">
         <v>37</v>
@@ -15336,7 +15346,7 @@
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="17">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="B419" s="17" t="s">
         <v>37</v>
@@ -15371,7 +15381,7 @@
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="17">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="B420" s="17" t="s">
         <v>37</v>
@@ -15406,7 +15416,7 @@
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="17">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B421" s="17" t="s">
         <v>37</v>
@@ -15441,7 +15451,7 @@
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="17">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="B422" s="17" t="s">
         <v>37</v>
@@ -15476,7 +15486,7 @@
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="17">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="B423" s="17" t="s">
         <v>37</v>
@@ -15511,7 +15521,7 @@
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="17">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="B424" s="17" t="s">
         <v>37</v>
@@ -15546,7 +15556,7 @@
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="17">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="B425" s="17" t="s">
         <v>37</v>
@@ -15581,7 +15591,7 @@
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="17">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="B426" s="17" t="s">
         <v>37</v>
@@ -15616,7 +15626,7 @@
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="17">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="B427" s="17" t="s">
         <v>37</v>
@@ -15651,7 +15661,7 @@
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="17">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="B428" s="17" t="s">
         <v>37</v>
@@ -15686,7 +15696,7 @@
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="17">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="B429" s="17" t="s">
         <v>37</v>
@@ -15721,7 +15731,7 @@
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="17">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="B430" s="17" t="s">
         <v>37</v>
@@ -15756,7 +15766,7 @@
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="17">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="B431" s="17" t="s">
         <v>37</v>
@@ -15791,7 +15801,7 @@
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="17">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B432" s="17" t="s">
         <v>37</v>
@@ -15826,7 +15836,7 @@
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="17">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="B433" s="17" t="s">
         <v>37</v>
@@ -15861,7 +15871,7 @@
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="17">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="B434" s="17" t="s">
         <v>37</v>
@@ -15896,7 +15906,7 @@
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B435" s="9" t="s">
         <v>37</v>
@@ -15931,7 +15941,7 @@
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B436" s="9" t="s">
         <v>37</v>
@@ -15966,7 +15976,7 @@
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B437" s="9" t="s">
         <v>37</v>
@@ -16001,7 +16011,7 @@
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B438" s="9" t="s">
         <v>37</v>
@@ -16036,7 +16046,7 @@
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B439" s="9" t="s">
         <v>37</v>
@@ -16071,7 +16081,7 @@
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B440" s="9" t="s">
         <v>37</v>
@@ -16106,7 +16116,7 @@
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B441" s="9" t="s">
         <v>37</v>
@@ -16141,7 +16151,7 @@
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B442" s="9" t="s">
         <v>37</v>
@@ -16176,7 +16186,7 @@
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B443" s="9" t="s">
         <v>37</v>
@@ -16211,7 +16221,7 @@
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B444" s="9" t="s">
         <v>37</v>
@@ -16246,7 +16256,7 @@
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>37</v>
@@ -16281,7 +16291,7 @@
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>37</v>
@@ -16316,7 +16326,7 @@
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>37</v>
@@ -16351,7 +16361,7 @@
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B448" s="10" t="s">
         <v>37</v>
@@ -16386,7 +16396,7 @@
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>37</v>
@@ -16421,7 +16431,7 @@
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B450" s="10" t="s">
         <v>37</v>
@@ -16456,7 +16466,7 @@
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>37</v>
@@ -16491,7 +16501,7 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>37</v>
@@ -16526,7 +16536,7 @@
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="4">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>37</v>
@@ -16561,7 +16571,7 @@
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>37</v>
@@ -16596,7 +16606,7 @@
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="4">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>37</v>
@@ -16631,7 +16641,7 @@
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="4">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>37</v>
@@ -16666,7 +16676,7 @@
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>37</v>
@@ -16701,7 +16711,7 @@
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>37</v>
@@ -16736,7 +16746,7 @@
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="4">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>37</v>
@@ -16771,7 +16781,7 @@
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>37</v>
@@ -16806,7 +16816,7 @@
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>37</v>
@@ -16841,7 +16851,7 @@
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>37</v>
@@ -16876,7 +16886,7 @@
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>37</v>
@@ -16911,7 +16921,7 @@
     </row>
     <row r="464" spans="1:11">
       <c r="A464" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>37</v>
@@ -16946,7 +16956,7 @@
     </row>
     <row r="465" spans="1:11">
       <c r="A465" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>37</v>
@@ -16981,7 +16991,7 @@
     </row>
     <row r="466" spans="1:11">
       <c r="A466" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>37</v>
@@ -17016,7 +17026,7 @@
     </row>
     <row r="467" spans="1:11">
       <c r="A467" s="20">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B467" s="20" t="s">
         <v>37</v>
@@ -17051,7 +17061,7 @@
     </row>
     <row r="468" spans="1:11">
       <c r="A468" s="20">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B468" s="20" t="s">
         <v>37</v>
@@ -17086,7 +17096,7 @@
     </row>
     <row r="469" spans="1:11">
       <c r="A469" s="20">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B469" s="20" t="s">
         <v>37</v>
@@ -17121,7 +17131,7 @@
     </row>
     <row r="470" spans="1:11">
       <c r="A470" s="20">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B470" s="20" t="s">
         <v>37</v>
@@ -17156,7 +17166,7 @@
     </row>
     <row r="471" spans="1:11">
       <c r="A471" s="20">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B471" s="20" t="s">
         <v>37</v>
@@ -17191,7 +17201,7 @@
     </row>
     <row r="472" spans="1:11">
       <c r="A472" s="20">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B472" s="20" t="s">
         <v>37</v>
@@ -17226,7 +17236,7 @@
     </row>
     <row r="473" spans="1:11">
       <c r="A473" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B473" s="20" t="s">
         <v>37</v>
@@ -17261,7 +17271,7 @@
     </row>
     <row r="474" spans="1:11">
       <c r="A474" s="20">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B474" s="20" t="s">
         <v>37</v>
@@ -17296,7 +17306,7 @@
     </row>
     <row r="475" spans="1:11">
       <c r="A475" s="20">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B475" s="20" t="s">
         <v>37</v>
@@ -17331,7 +17341,7 @@
     </row>
     <row r="476" spans="1:11">
       <c r="A476" s="20">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B476" s="20" t="s">
         <v>37</v>
@@ -17366,7 +17376,7 @@
     </row>
     <row r="477" spans="1:11">
       <c r="A477" s="20">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B477" s="20" t="s">
         <v>37</v>
@@ -17401,7 +17411,7 @@
     </row>
     <row r="478" spans="1:11">
       <c r="A478" s="20">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B478" s="20" t="s">
         <v>37</v>
@@ -17436,7 +17446,7 @@
     </row>
     <row r="479" spans="1:11">
       <c r="A479" s="20">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B479" s="20" t="s">
         <v>37</v>
@@ -17471,7 +17481,7 @@
     </row>
     <row r="480" spans="1:11">
       <c r="A480" s="20">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B480" s="20" t="s">
         <v>37</v>
@@ -17506,7 +17516,7 @@
     </row>
     <row r="481" spans="1:11">
       <c r="A481" s="20">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B481" s="20" t="s">
         <v>37</v>
@@ -17541,7 +17551,7 @@
     </row>
     <row r="482" spans="1:11">
       <c r="A482" s="20">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B482" s="20" t="s">
         <v>37</v>
@@ -17573,74 +17583,6 @@
       <c r="K482" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:11">
-      <c r="J483" s="1"/>
-      <c r="K483" s="1"/>
-    </row>
-    <row r="484" spans="1:11">
-      <c r="J484" s="1"/>
-      <c r="K484" s="1"/>
-    </row>
-    <row r="485" spans="1:11">
-      <c r="J485" s="1"/>
-      <c r="K485" s="1"/>
-    </row>
-    <row r="486" spans="1:11">
-      <c r="J486" s="1"/>
-      <c r="K486" s="1"/>
-    </row>
-    <row r="487" spans="1:11">
-      <c r="J487" s="1"/>
-      <c r="K487" s="1"/>
-    </row>
-    <row r="488" spans="1:11">
-      <c r="J488" s="1"/>
-      <c r="K488" s="1"/>
-    </row>
-    <row r="489" spans="1:11">
-      <c r="J489" s="1"/>
-      <c r="K489" s="1"/>
-    </row>
-    <row r="490" spans="1:11">
-      <c r="J490" s="1"/>
-      <c r="K490" s="1"/>
-    </row>
-    <row r="491" spans="1:11">
-      <c r="J491" s="1"/>
-      <c r="K491" s="1"/>
-    </row>
-    <row r="492" spans="1:11">
-      <c r="J492" s="1"/>
-      <c r="K492" s="1"/>
-    </row>
-    <row r="493" spans="1:11">
-      <c r="J493" s="1"/>
-      <c r="K493" s="1"/>
-    </row>
-    <row r="494" spans="1:11">
-      <c r="J494" s="1"/>
-      <c r="K494" s="1"/>
-    </row>
-    <row r="495" spans="1:11">
-      <c r="J495" s="1"/>
-      <c r="K495" s="1"/>
-    </row>
-    <row r="496" spans="1:11">
-      <c r="J496" s="1"/>
-      <c r="K496" s="1"/>
-    </row>
-    <row r="497" spans="10:11">
-      <c r="J497" s="1"/>
-      <c r="K497" s="1"/>
-    </row>
-    <row r="498" spans="10:11">
-      <c r="J498" s="1"/>
-      <c r="K498" s="1"/>
-    </row>
-    <row r="499" spans="10:11">
-      <c r="J499" s="1"/>
-      <c r="K499" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
